--- a/Planisphere_work.xlsx
+++ b/Planisphere_work.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Planisphere\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaorichan\Documents\GOZARU\公開サイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00EEEDF-0CF2-4388-81D0-FEB268CD7FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2663C323-B24B-4B6F-856C-13959DB4B960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -349,7 +349,71 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>REFRESH</t>
+  </si>
+  <si>
+    <t>EVENTCONTACT</t>
+  </si>
+  <si>
+    <t>ContactEmail_</t>
+  </si>
+  <si>
+    <t>ContactTel_</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
     <t>TESTTEXTID</t>
+  </si>
+  <si>
+    <t>room-info</t>
+  </si>
+  <si>
+    <t>部屋指定なし</t>
+  </si>
+  <si>
+    <t>optionPlanTest01_</t>
+  </si>
+  <si>
+    <t>//*[@id="plans"]/ul/li</t>
+  </si>
+  <si>
+    <t>optionPlanTest02_</t>
+  </si>
+  <si>
+    <t>optionPlanTest03_</t>
+  </si>
+  <si>
+    <t>TESTCONTACT</t>
+  </si>
+  <si>
+    <t>//ご要望の検証_</t>
+  </si>
+  <si>
+    <t>commentTest_</t>
+  </si>
+  <si>
+    <t>//予約確定_</t>
+  </si>
+  <si>
+    <t>GETRESERVEUSER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>contact</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -357,7 +421,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +448,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -444,11 +520,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -468,10 +545,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_Sheet1" xfId="1" xr:uid="{6B0DBC97-589C-49FF-A1CA-F3F053EE0BCC}"/>
+    <cellStyle name="標準_Sheet1_1" xfId="2" xr:uid="{D46563AF-B73A-4112-9CF8-85CDE91CD710}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.296875" defaultRowHeight="18"/>
@@ -773,70 +864,82 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10">
         <v>0</v>
       </c>
     </row>
@@ -844,28 +947,28 @@
       <c r="A4" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10">
         <v>1100</v>
       </c>
     </row>
@@ -873,28 +976,28 @@
       <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10">
         <v>3000</v>
       </c>
     </row>
@@ -902,28 +1005,28 @@
       <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10">
         <v>850</v>
       </c>
     </row>
@@ -931,28 +1034,28 @@
       <c r="A7" s="4">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10">
         <v>850</v>
       </c>
     </row>
@@ -960,28 +1063,28 @@
       <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="E8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10">
         <v>1050</v>
       </c>
     </row>
@@ -989,28 +1092,28 @@
       <c r="A9" s="4">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1018,28 +1121,28 @@
       <c r="A10" s="4">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1047,28 +1150,28 @@
       <c r="A11" s="4">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1076,28 +1179,28 @@
       <c r="A12" s="4">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1105,28 +1208,28 @@
       <c r="A13" s="4">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1134,28 +1237,28 @@
       <c r="A14" s="4">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1163,28 +1266,28 @@
       <c r="A15" s="4">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1192,66 +1295,82 @@
       <c r="A16" s="4">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="B17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
+      <c r="B18" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="10">
         <v>1000</v>
       </c>
     </row>
@@ -1259,807 +1378,876 @@
       <c r="A19" s="4">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="E19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10">
         <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="4">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="4">
-        <v>780</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="10">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="4">
-        <v>750</v>
+      <c r="D25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="4">
-        <v>1150</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="10">
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1150</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4">
-        <v>1000</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4">
-        <v>1000</v>
+      <c r="B30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1000</v>
+      <c r="B32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="4">
+      <c r="C35" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="C36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="10">
         <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="4">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0</v>
+      <c r="A37" s="4"/>
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4">
-        <v>35</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1000</v>
+        <v>34</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4">
-        <v>36</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B41" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="5"/>
+      <c r="E41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1000</v>
-      </c>
+      <c r="B42" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="B43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1000</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4">
         <v>38</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4">
+      <c r="E45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="10">
         <v>1250</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="26.4">
-      <c r="A45" s="4">
+    <row r="46" spans="1:9" ht="26.4">
+      <c r="A46" s="4">
         <v>39</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D46" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E46" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="4">
+      <c r="F46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="10">
         <v>1260</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="39.6">
-      <c r="A46" s="4">
+    <row r="47" spans="1:9" ht="39.6">
+      <c r="A47" s="4">
         <v>40</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="4">
+      <c r="F47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="10">
         <v>1270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="4">
-        <v>41</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1280</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="4">
+        <v>41</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4">
         <v>42</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="4">
+      <c r="C49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="10">
         <v>1000</v>
       </c>
     </row>

--- a/Planisphere_work.xlsx
+++ b/Planisphere_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaorichan\Documents\GOZARU\公開サイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2663C323-B24B-4B6F-856C-13959DB4B960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95774FDF-210E-4F45-ABCC-4A6344715675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -416,17 +416,15 @@
     <t>contact</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>TESTGUESTNAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -842,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.296875" defaultRowHeight="18"/>
@@ -1946,8 +1944,8 @@
       <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>101</v>
+      <c r="B39" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>64</v>
